--- a/Data/Notional S-STEM Survey Data Generated.xlsx
+++ b/Data/Notional S-STEM Survey Data Generated.xlsx
@@ -847,22 +847,22 @@
         <v>3</v>
       </c>
       <c r="AG2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK2">
         <v>2</v>
       </c>
       <c r="AL2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2">
         <v>2</v>
@@ -871,55 +871,55 @@
         <v>2</v>
       </c>
       <c r="AO2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ2">
         <v>3</v>
       </c>
       <c r="AR2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS2">
         <v>2</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA2">
         <v>3</v>
       </c>
       <c r="BB2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC2">
         <v>2</v>
       </c>
       <c r="BD2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="AF3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -962,13 +962,13 @@
         <v>1</v>
       </c>
       <c r="AK3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -977,16 +977,16 @@
         <v>2</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>1</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -995,13 +995,13 @@
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW3">
         <v>1</v>
       </c>
       <c r="AX3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY3">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="BA3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB3">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1059,46 +1059,46 @@
         <v>5</v>
       </c>
       <c r="AI4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK4">
         <v>5</v>
       </c>
       <c r="AL4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM4">
         <v>5</v>
       </c>
       <c r="AN4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AR4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW4">
         <v>5</v>
@@ -1110,22 +1110,22 @@
         <v>4</v>
       </c>
       <c r="AZ4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB4">
         <v>5</v>
       </c>
       <c r="BC4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BE4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1156,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="AG5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ5">
         <v>5</v>
@@ -1177,25 +1177,25 @@
         <v>4</v>
       </c>
       <c r="AN5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AS5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU5">
         <v>4</v>
@@ -1207,25 +1207,25 @@
         <v>4</v>
       </c>
       <c r="AX5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5">
         <v>5</v>
       </c>
       <c r="AZ5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC5">
         <v>4</v>
       </c>
       <c r="BD5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE5">
         <v>5</v>
@@ -1259,49 +1259,49 @@
         <v>5</v>
       </c>
       <c r="AG6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL6">
         <v>5</v>
       </c>
       <c r="AM6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO6">
         <v>5</v>
       </c>
       <c r="AP6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT6">
         <v>5</v>
       </c>
       <c r="AU6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV6">
         <v>5</v>
@@ -1316,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="AZ6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB6">
         <v>5</v>
@@ -1328,10 +1328,10 @@
         <v>4</v>
       </c>
       <c r="BD6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BE6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1359,79 +1359,79 @@
         </is>
       </c>
       <c r="AF7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG7">
         <v>3</v>
       </c>
       <c r="AH7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL7">
         <v>4</v>
       </c>
       <c r="AM7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN7">
         <v>4</v>
       </c>
       <c r="AO7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX7">
         <v>3</v>
       </c>
       <c r="AY7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ7">
         <v>4</v>
       </c>
       <c r="BA7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE7">
         <v>5</v>
@@ -1468,13 +1468,13 @@
         <v>5</v>
       </c>
       <c r="AH8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK8">
         <v>5</v>
@@ -1483,28 +1483,28 @@
         <v>5</v>
       </c>
       <c r="AM8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN8">
         <v>5</v>
       </c>
       <c r="AO8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR8">
         <v>5</v>
       </c>
       <c r="AS8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU8">
         <v>5</v>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="AZ8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA8">
         <v>5</v>
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="BD8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE8">
         <v>4</v>
@@ -1574,10 +1574,10 @@
         <v>5</v>
       </c>
       <c r="AI9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK9">
         <v>5</v>
@@ -1586,61 +1586,61 @@
         <v>5</v>
       </c>
       <c r="AM9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>1</v>
       </c>
       <c r="AR9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS9">
         <v>3</v>
       </c>
       <c r="AT9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW9">
         <v>5</v>
       </c>
       <c r="AX9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB9">
         <v>5</v>
       </c>
       <c r="BC9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BE9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1668,43 +1668,43 @@
         </is>
       </c>
       <c r="AF10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ10">
         <v>5</v>
       </c>
       <c r="AK10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN10">
         <v>4</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ10">
         <v>5</v>
       </c>
       <c r="AR10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS10">
         <v>4</v>
@@ -1713,25 +1713,25 @@
         <v>4</v>
       </c>
       <c r="AU10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB10">
         <v>5</v>
@@ -1740,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="BD10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE10">
         <v>4</v>
@@ -1774,10 +1774,10 @@
         <v>4</v>
       </c>
       <c r="AG11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI11">
         <v>4</v>
@@ -1786,46 +1786,46 @@
         <v>3</v>
       </c>
       <c r="AK11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT11">
         <v>4</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV11">
         <v>4</v>
       </c>
       <c r="AW11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY11">
         <v>5</v>
@@ -1837,13 +1837,13 @@
         <v>5</v>
       </c>
       <c r="BB11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE11">
         <v>5</v>
@@ -1874,52 +1874,52 @@
         </is>
       </c>
       <c r="AF12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG12">
         <v>2</v>
       </c>
       <c r="AH12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS12">
         <v>4</v>
       </c>
       <c r="AT12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV12">
         <v>3</v>
@@ -1931,25 +1931,25 @@
         <v>3</v>
       </c>
       <c r="AY12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB12">
         <v>2</v>
       </c>
       <c r="BC12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BD12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1980,76 +1980,76 @@
         <v>3</v>
       </c>
       <c r="AG13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI13">
         <v>4</v>
       </c>
       <c r="AJ13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL13">
         <v>2</v>
       </c>
       <c r="AM13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN13">
         <v>2</v>
       </c>
       <c r="AO13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP13">
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW13">
         <v>3</v>
       </c>
       <c r="AX13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB13">
         <v>2</v>
       </c>
       <c r="BC13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BE13">
         <v>3</v>
@@ -2086,73 +2086,73 @@
         <v>3</v>
       </c>
       <c r="AH14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>1</v>
       </c>
       <c r="AR14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW14">
         <v>2</v>
       </c>
       <c r="AX14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BA14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE14">
         <v>2</v>
@@ -2189,28 +2189,28 @@
         <v>4</v>
       </c>
       <c r="AH15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK15">
         <v>5</v>
       </c>
       <c r="AL15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP15">
         <v>2</v>
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS15">
         <v>2</v>
@@ -2231,34 +2231,34 @@
         <v>1</v>
       </c>
       <c r="AV15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD15">
         <v>3</v>
       </c>
       <c r="BE15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="AF16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG16">
         <v>5</v>
@@ -2295,73 +2295,73 @@
         <v>5</v>
       </c>
       <c r="AI16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ16">
         <v>5</v>
       </c>
       <c r="AK16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV16">
         <v>2</v>
       </c>
       <c r="AW16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2392,7 +2392,7 @@
         <v>4</v>
       </c>
       <c r="AG17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH17">
         <v>5</v>
@@ -2401,10 +2401,10 @@
         <v>4</v>
       </c>
       <c r="AJ17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL17">
         <v>5</v>
@@ -2413,25 +2413,25 @@
         <v>3</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP17">
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS17">
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>1</v>
@@ -2440,31 +2440,31 @@
         <v>2</v>
       </c>
       <c r="AW17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX17">
         <v>4</v>
       </c>
       <c r="AY17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BA17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB17">
         <v>4</v>
       </c>
       <c r="BC17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2492,34 +2492,34 @@
         </is>
       </c>
       <c r="AF18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM18">
         <v>4</v>
       </c>
       <c r="AN18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP18">
         <v>5</v>
@@ -2528,7 +2528,7 @@
         <v>5</v>
       </c>
       <c r="AR18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS18">
         <v>4</v>
@@ -2540,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="AV18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW18">
         <v>4</v>
@@ -2561,13 +2561,13 @@
         <v>4</v>
       </c>
       <c r="BC18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2601,19 +2601,19 @@
         <v>5</v>
       </c>
       <c r="AH19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM19">
         <v>5</v>
@@ -2622,13 +2622,13 @@
         <v>5</v>
       </c>
       <c r="AO19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR19">
         <v>5</v>
@@ -2649,28 +2649,28 @@
         <v>5</v>
       </c>
       <c r="AX19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY19">
         <v>5</v>
       </c>
       <c r="AZ19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA19">
         <v>5</v>
       </c>
       <c r="BB19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BD19">
         <v>5</v>
       </c>
       <c r="BE19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2701,10 +2701,10 @@
         <v>1</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI20">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="AL20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM20">
         <v>1</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1</v>
       </c>
       <c r="AR20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU20">
         <v>1</v>
       </c>
       <c r="AV20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW20">
         <v>2</v>
       </c>
       <c r="AX20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB20">
         <v>1</v>
@@ -2801,46 +2801,46 @@
         </is>
       </c>
       <c r="AF21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI21">
         <v>1</v>
       </c>
       <c r="AJ21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT21">
         <v>3</v>
@@ -2852,31 +2852,31 @@
         <v>3</v>
       </c>
       <c r="AW21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY21">
         <v>1</v>
       </c>
       <c r="AZ21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BA21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD21">
         <v>1</v>
       </c>
       <c r="BE21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2910,67 +2910,67 @@
         <v>2</v>
       </c>
       <c r="AH22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX22">
         <v>3</v>
       </c>
       <c r="AY22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC22">
         <v>3</v>
@@ -2979,7 +2979,7 @@
         <v>3</v>
       </c>
       <c r="BE22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -3007,67 +3007,67 @@
         </is>
       </c>
       <c r="AF23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH23">
         <v>2</v>
       </c>
       <c r="AI23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK23">
         <v>4</v>
       </c>
       <c r="AL23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN23">
         <v>2</v>
       </c>
       <c r="AO23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ23">
         <v>2</v>
       </c>
       <c r="AR23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW23">
         <v>3</v>
       </c>
       <c r="AX23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BA23">
         <v>3</v>
@@ -3076,13 +3076,13 @@
         <v>4</v>
       </c>
       <c r="BC23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BE23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -3110,82 +3110,82 @@
         </is>
       </c>
       <c r="AF24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI24">
         <v>5</v>
       </c>
       <c r="AJ24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL24">
         <v>5</v>
       </c>
       <c r="AM24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW24">
         <v>4</v>
       </c>
       <c r="AX24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ24">
         <v>5</v>
       </c>
       <c r="BA24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD24">
         <v>4</v>
       </c>
       <c r="BE24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -3213,25 +3213,25 @@
         </is>
       </c>
       <c r="AF25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM25">
         <v>4</v>
@@ -3240,10 +3240,10 @@
         <v>3</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>3</v>
@@ -3252,43 +3252,43 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU25">
         <v>1</v>
       </c>
       <c r="AV25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW25">
         <v>3</v>
       </c>
       <c r="AX25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BA25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC25">
         <v>3</v>
       </c>
       <c r="BD25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -3316,28 +3316,28 @@
         </is>
       </c>
       <c r="AF26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK26">
         <v>3</v>
       </c>
       <c r="AL26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN26">
         <v>4</v>
@@ -3346,28 +3346,28 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU26">
         <v>4</v>
       </c>
       <c r="AV26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX26">
         <v>5</v>
@@ -3376,22 +3376,22 @@
         <v>5</v>
       </c>
       <c r="AZ26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA26">
         <v>5</v>
       </c>
       <c r="BB26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BE26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -3419,16 +3419,16 @@
         </is>
       </c>
       <c r="AF27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ27">
         <v>1</v>
@@ -3437,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="AL27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM27">
         <v>4</v>
@@ -3452,49 +3452,49 @@
         <v>3</v>
       </c>
       <c r="AQ27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BE27">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="AH28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28">
         <v>1</v>
@@ -3540,16 +3540,16 @@
         <v>1</v>
       </c>
       <c r="AL28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN28">
         <v>3</v>
       </c>
       <c r="AO28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP28">
         <v>4</v>
@@ -3558,37 +3558,37 @@
         <v>3</v>
       </c>
       <c r="AR28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX28">
         <v>2</v>
       </c>
       <c r="AY28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC28">
         <v>1</v>
@@ -3597,7 +3597,7 @@
         <v>3</v>
       </c>
       <c r="BE28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3628,43 +3628,43 @@
         <v>3</v>
       </c>
       <c r="AG29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI29">
         <v>4</v>
       </c>
       <c r="AJ29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL29">
         <v>3</v>
       </c>
       <c r="AM29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ29">
         <v>2</v>
       </c>
       <c r="AR29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT29">
         <v>2</v>
@@ -3673,34 +3673,34 @@
         <v>1</v>
       </c>
       <c r="AV29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -3731,76 +3731,76 @@
         <v>3</v>
       </c>
       <c r="AG30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN30">
         <v>4</v>
       </c>
       <c r="AO30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ30">
         <v>5</v>
       </c>
       <c r="AR30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX30">
         <v>5</v>
       </c>
       <c r="AY30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE30">
         <v>3</v>
@@ -3831,55 +3831,55 @@
         </is>
       </c>
       <c r="AF31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ31">
         <v>2</v>
       </c>
       <c r="AK31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN31">
         <v>3</v>
       </c>
       <c r="AO31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP31">
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AU31">
         <v>2</v>
       </c>
       <c r="AV31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW31">
         <v>2</v>
@@ -3888,22 +3888,22 @@
         <v>3</v>
       </c>
       <c r="AY31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC31">
         <v>1</v>
       </c>
       <c r="BD31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE31">
         <v>2</v>
@@ -3937,28 +3937,28 @@
         <v>5</v>
       </c>
       <c r="AG32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ32">
         <v>5</v>
       </c>
       <c r="AK32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM32">
         <v>5</v>
       </c>
       <c r="AN32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO32">
         <v>5</v>
@@ -3967,43 +3967,43 @@
         <v>5</v>
       </c>
       <c r="AQ32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT32">
         <v>5</v>
       </c>
       <c r="AU32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA32">
         <v>5</v>
       </c>
       <c r="BB32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD32">
         <v>4</v>
@@ -4037,19 +4037,19 @@
         </is>
       </c>
       <c r="AF33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH33">
         <v>5</v>
       </c>
       <c r="AI33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK33">
         <v>5</v>
@@ -4061,28 +4061,28 @@
         <v>4</v>
       </c>
       <c r="AN33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS33">
         <v>5</v>
       </c>
       <c r="AT33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV33">
         <v>5</v>
@@ -4091,28 +4091,28 @@
         <v>5</v>
       </c>
       <c r="AX33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY33">
         <v>5</v>
       </c>
       <c r="AZ33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA33">
         <v>5</v>
       </c>
       <c r="BB33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD33">
         <v>5</v>
       </c>
       <c r="BE33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -4146,43 +4146,43 @@
         <v>3</v>
       </c>
       <c r="AH34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK34">
         <v>1</v>
       </c>
       <c r="AL34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM34">
         <v>2</v>
       </c>
       <c r="AN34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -4197,25 +4197,25 @@
         <v>3</v>
       </c>
       <c r="AY34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ34">
         <v>2</v>
       </c>
       <c r="BA34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB34">
         <v>2</v>
       </c>
       <c r="BC34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BE34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -4243,28 +4243,28 @@
         </is>
       </c>
       <c r="AF35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG35">
         <v>2</v>
       </c>
       <c r="AH35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI35">
         <v>4</v>
       </c>
       <c r="AJ35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL35">
         <v>3</v>
       </c>
       <c r="AM35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN35">
         <v>2</v>
@@ -4276,49 +4276,49 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BA35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BE35">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -4352,76 +4352,76 @@
         <v>4</v>
       </c>
       <c r="AH36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN36">
         <v>2</v>
       </c>
       <c r="AO36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP36">
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS36">
         <v>1</v>
       </c>
       <c r="AT36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV36">
         <v>2</v>
       </c>
       <c r="AW36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA36">
         <v>2</v>
       </c>
       <c r="BB36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BD36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BE36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -4449,79 +4449,79 @@
         </is>
       </c>
       <c r="AF37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>1</v>
       </c>
       <c r="AR37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS37">
         <v>2</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU37">
         <v>1</v>
       </c>
       <c r="AV37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY37">
         <v>1</v>
       </c>
       <c r="AZ37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB37">
         <v>1</v>
       </c>
       <c r="BC37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -4558,10 +4558,10 @@
         <v>5</v>
       </c>
       <c r="AH38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ38">
         <v>5</v>
@@ -4585,49 +4585,49 @@
         <v>5</v>
       </c>
       <c r="AQ38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU38">
         <v>4</v>
       </c>
       <c r="AV38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD38">
         <v>5</v>
       </c>
       <c r="BE38">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -4655,82 +4655,82 @@
         </is>
       </c>
       <c r="AF39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG39">
         <v>4</v>
       </c>
       <c r="AH39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI39">
         <v>3</v>
       </c>
       <c r="AJ39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK39">
         <v>4</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP39">
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA39">
         <v>3</v>
       </c>
       <c r="BB39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD39">
         <v>5</v>
       </c>
       <c r="BE39">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -4758,28 +4758,28 @@
         </is>
       </c>
       <c r="AF40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH40">
         <v>3</v>
       </c>
       <c r="AI40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN40">
         <v>4</v>
@@ -4788,52 +4788,52 @@
         <v>4</v>
       </c>
       <c r="AP40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ40">
         <v>5</v>
       </c>
       <c r="AR40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW40">
         <v>3</v>
       </c>
       <c r="AX40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB40">
         <v>3</v>
       </c>
       <c r="BC40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE40">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -4864,13 +4864,13 @@
         <v>5</v>
       </c>
       <c r="AG41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH41">
         <v>5</v>
       </c>
       <c r="AI41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ41">
         <v>5</v>
@@ -4885,40 +4885,40 @@
         <v>5</v>
       </c>
       <c r="AN41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP41">
         <v>4</v>
       </c>
       <c r="AQ41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR41">
         <v>5</v>
       </c>
       <c r="AS41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW41">
         <v>5</v>
       </c>
       <c r="AX41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ41">
         <v>3</v>
@@ -4930,10 +4930,10 @@
         <v>5</v>
       </c>
       <c r="BC41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BE41">
         <v>5</v>
@@ -4967,13 +4967,13 @@
         <v>2</v>
       </c>
       <c r="AG42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ42">
         <v>1</v>
@@ -4982,55 +4982,55 @@
         <v>3</v>
       </c>
       <c r="AL42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR42">
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW42">
         <v>1</v>
       </c>
       <c r="AX42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY42">
         <v>1</v>
       </c>
       <c r="AZ42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA42">
         <v>1</v>
       </c>
       <c r="BB42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC42">
         <v>1</v>
@@ -5082,13 +5082,13 @@
         <v>5</v>
       </c>
       <c r="AK43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN43">
         <v>5</v>
@@ -5097,16 +5097,16 @@
         <v>5</v>
       </c>
       <c r="AP43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ43">
         <v>5</v>
       </c>
       <c r="AR43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT43">
         <v>5</v>
@@ -5115,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="AV43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW43">
         <v>5</v>
@@ -5124,7 +5124,7 @@
         <v>4</v>
       </c>
       <c r="AY43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ43">
         <v>5</v>
@@ -5133,13 +5133,13 @@
         <v>5</v>
       </c>
       <c r="BB43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC43">
         <v>5</v>
       </c>
       <c r="BD43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE43">
         <v>5</v>
@@ -5170,82 +5170,82 @@
         </is>
       </c>
       <c r="AF44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK44">
         <v>3</v>
       </c>
       <c r="AL44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN44">
         <v>2</v>
       </c>
       <c r="AO44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ44">
         <v>3</v>
       </c>
       <c r="AR44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT44">
         <v>2</v>
       </c>
       <c r="AU44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BE44">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -5276,79 +5276,79 @@
         <v>2</v>
       </c>
       <c r="AG45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>2</v>
       </c>
       <c r="AR45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC45">
         <v>2</v>
       </c>
       <c r="BD45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -5382,19 +5382,19 @@
         <v>4</v>
       </c>
       <c r="AH46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM46">
         <v>4</v>
@@ -5403,13 +5403,13 @@
         <v>2</v>
       </c>
       <c r="AO46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP46">
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>2</v>
@@ -5418,10 +5418,10 @@
         <v>2</v>
       </c>
       <c r="AT46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV46">
         <v>2</v>
@@ -5430,10 +5430,10 @@
         <v>2</v>
       </c>
       <c r="AX46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ46">
         <v>2</v>
@@ -5445,13 +5445,13 @@
         <v>1</v>
       </c>
       <c r="BC46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -5479,25 +5479,25 @@
         </is>
       </c>
       <c r="AF47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH47">
         <v>1</v>
       </c>
       <c r="AI47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM47">
         <v>2</v>
@@ -5506,13 +5506,13 @@
         <v>1</v>
       </c>
       <c r="AO47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>1</v>
@@ -5530,28 +5530,28 @@
         <v>2</v>
       </c>
       <c r="AW47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY47">
         <v>4</v>
       </c>
       <c r="AZ47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BE47">
         <v>2</v>
@@ -5582,31 +5582,31 @@
         </is>
       </c>
       <c r="AF48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG48">
         <v>5</v>
       </c>
       <c r="AH48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM48">
         <v>5</v>
       </c>
       <c r="AN48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO48">
         <v>5</v>
@@ -5615,7 +5615,7 @@
         <v>5</v>
       </c>
       <c r="AQ48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR48">
         <v>5</v>
@@ -5624,10 +5624,10 @@
         <v>5</v>
       </c>
       <c r="AT48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV48">
         <v>5</v>
@@ -5636,28 +5636,28 @@
         <v>5</v>
       </c>
       <c r="AX48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA48">
         <v>5</v>
       </c>
       <c r="BB48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE48">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -5691,46 +5691,46 @@
         <v>5</v>
       </c>
       <c r="AH49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO49">
         <v>4</v>
       </c>
       <c r="AP49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ49">
         <v>5</v>
       </c>
       <c r="AR49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV49">
         <v>5</v>
@@ -5739,7 +5739,7 @@
         <v>5</v>
       </c>
       <c r="AX49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY49">
         <v>5</v>
@@ -5751,10 +5751,10 @@
         <v>5</v>
       </c>
       <c r="BB49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD49">
         <v>5</v>
@@ -5788,58 +5788,58 @@
         </is>
       </c>
       <c r="AF50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG50">
         <v>1</v>
       </c>
       <c r="AH50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ50">
         <v>1</v>
       </c>
       <c r="AK50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM50">
         <v>1</v>
       </c>
       <c r="AN50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>4</v>
       </c>
       <c r="AR50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>3</v>
       </c>
       <c r="AU50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX50">
         <v>1</v>
@@ -5848,22 +5848,22 @@
         <v>2</v>
       </c>
       <c r="AZ50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD50">
         <v>1</v>
       </c>
       <c r="BE50">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -5891,16 +5891,16 @@
         </is>
       </c>
       <c r="AF51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH51">
         <v>5</v>
       </c>
       <c r="AI51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ51">
         <v>5</v>
@@ -5915,31 +5915,31 @@
         <v>4</v>
       </c>
       <c r="AN51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW51">
         <v>5</v>
@@ -5948,22 +5948,22 @@
         <v>5</v>
       </c>
       <c r="AY51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC51">
         <v>4</v>
       </c>
       <c r="BD51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE51">
         <v>5</v>
@@ -5994,82 +5994,82 @@
         </is>
       </c>
       <c r="AF52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU52">
         <v>2</v>
       </c>
       <c r="AV52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BE52">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -6097,73 +6097,73 @@
         </is>
       </c>
       <c r="AF53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH53">
         <v>2</v>
       </c>
       <c r="AI53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN53">
         <v>3</v>
       </c>
       <c r="AO53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT53">
         <v>4</v>
       </c>
       <c r="AU53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW53">
         <v>2</v>
       </c>
       <c r="AX53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC53">
         <v>2</v>
@@ -6172,7 +6172,7 @@
         <v>4</v>
       </c>
       <c r="BE53">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="AF54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI54">
         <v>3</v>
       </c>
       <c r="AJ54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO54">
         <v>5</v>
@@ -6236,43 +6236,43 @@
         <v>5</v>
       </c>
       <c r="AR54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU54">
         <v>2</v>
       </c>
       <c r="AV54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW54">
         <v>4</v>
       </c>
       <c r="AX54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ54">
         <v>5</v>
       </c>
       <c r="BA54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB54">
         <v>4</v>
       </c>
       <c r="BC54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BE54">
         <v>5</v>
@@ -6303,82 +6303,82 @@
         </is>
       </c>
       <c r="AF55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH55">
         <v>3</v>
       </c>
       <c r="AI55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP55">
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>3</v>
       </c>
       <c r="AS55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC55">
         <v>4</v>
       </c>
       <c r="BD55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE55">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -6406,73 +6406,73 @@
         </is>
       </c>
       <c r="AF56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN56">
         <v>2</v>
       </c>
       <c r="AO56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP56">
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS56">
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU56">
         <v>1</v>
       </c>
       <c r="AV56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX56">
         <v>3</v>
       </c>
       <c r="AY56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA56">
         <v>3</v>
       </c>
       <c r="BB56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC56">
         <v>4</v>
@@ -6481,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="BE56">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -6509,43 +6509,43 @@
         </is>
       </c>
       <c r="AF57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN57">
         <v>1</v>
       </c>
       <c r="AO57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ57">
         <v>2</v>
       </c>
       <c r="AR57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS57">
         <v>1</v>
@@ -6557,28 +6557,28 @@
         <v>1</v>
       </c>
       <c r="AV57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD57">
         <v>2</v>
@@ -6612,19 +6612,19 @@
         </is>
       </c>
       <c r="AF58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH58">
         <v>5</v>
       </c>
       <c r="AI58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK58">
         <v>5</v>
@@ -6636,58 +6636,58 @@
         <v>4</v>
       </c>
       <c r="AN58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP58">
         <v>4</v>
       </c>
       <c r="AQ58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS58">
         <v>4</v>
       </c>
       <c r="AT58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW58">
         <v>4</v>
       </c>
       <c r="AX58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA58">
         <v>3</v>
       </c>
       <c r="BB58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC58">
         <v>4</v>
       </c>
       <c r="BD58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE58">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -6715,16 +6715,16 @@
         </is>
       </c>
       <c r="AF59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG59">
         <v>5</v>
       </c>
       <c r="AH59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ59">
         <v>4</v>
@@ -6733,52 +6733,52 @@
         <v>5</v>
       </c>
       <c r="AL59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM59">
         <v>4</v>
       </c>
       <c r="AN59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP59">
         <v>4</v>
       </c>
       <c r="AQ59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ59">
         <v>4</v>
       </c>
       <c r="BA59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB59">
         <v>4</v>
@@ -6787,10 +6787,10 @@
         <v>4</v>
       </c>
       <c r="BD59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BE59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -6818,28 +6818,28 @@
         </is>
       </c>
       <c r="AF60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG60">
         <v>2</v>
       </c>
       <c r="AH60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ60">
         <v>3</v>
       </c>
       <c r="AK60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN60">
         <v>4</v>
@@ -6851,13 +6851,13 @@
         <v>3</v>
       </c>
       <c r="AQ60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT60">
         <v>5</v>
@@ -6869,16 +6869,16 @@
         <v>5</v>
       </c>
       <c r="AW60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA60">
         <v>5</v>
@@ -6887,13 +6887,13 @@
         <v>4</v>
       </c>
       <c r="BC60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE60">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -6921,37 +6921,37 @@
         </is>
       </c>
       <c r="AF61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK61">
         <v>4</v>
       </c>
       <c r="AL61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ61">
         <v>5</v>
@@ -6963,25 +6963,25 @@
         <v>5</v>
       </c>
       <c r="AT61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA61">
         <v>4</v>
@@ -6990,13 +6990,13 @@
         <v>3</v>
       </c>
       <c r="BC61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BE61">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -7024,55 +7024,55 @@
         </is>
       </c>
       <c r="AF62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ62">
         <v>4</v>
       </c>
       <c r="AK62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>1</v>
       </c>
       <c r="AR62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW62">
         <v>2</v>
@@ -7084,22 +7084,22 @@
         <v>1</v>
       </c>
       <c r="AZ62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -7130,61 +7130,61 @@
         <v>2</v>
       </c>
       <c r="AG63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI63">
         <v>1</v>
       </c>
       <c r="AJ63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN63">
         <v>3</v>
       </c>
       <c r="AO63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX63">
         <v>2</v>
       </c>
       <c r="AY63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ63">
         <v>2</v>
@@ -7196,13 +7196,13 @@
         <v>2</v>
       </c>
       <c r="BC63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -7230,82 +7230,82 @@
         </is>
       </c>
       <c r="AF64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP64">
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW64">
         <v>2</v>
       </c>
       <c r="AX64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -7333,25 +7333,25 @@
         </is>
       </c>
       <c r="AF65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM65">
         <v>3</v>
@@ -7360,55 +7360,55 @@
         <v>2</v>
       </c>
       <c r="AO65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS65">
         <v>1</v>
       </c>
       <c r="AT65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>3</v>
       </c>
       <c r="AV65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW65">
         <v>3</v>
       </c>
       <c r="AX65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB65">
         <v>4</v>
       </c>
       <c r="BC65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -7436,64 +7436,64 @@
         </is>
       </c>
       <c r="AF66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK66">
         <v>4</v>
       </c>
       <c r="AL66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX66">
         <v>1</v>
       </c>
       <c r="AY66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ66">
         <v>2</v>
@@ -7505,13 +7505,13 @@
         <v>1</v>
       </c>
       <c r="BC66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE66">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -7542,40 +7542,40 @@
         <v>4</v>
       </c>
       <c r="AG67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL67">
         <v>4</v>
       </c>
       <c r="AM67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO67">
         <v>5</v>
       </c>
       <c r="AP67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS67">
         <v>4</v>
@@ -7584,10 +7584,10 @@
         <v>2</v>
       </c>
       <c r="AU67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW67">
         <v>4</v>
@@ -7599,22 +7599,22 @@
         <v>3</v>
       </c>
       <c r="AZ67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BA67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BE67">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -7645,76 +7645,76 @@
         <v>3</v>
       </c>
       <c r="AG68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM68">
         <v>2</v>
       </c>
       <c r="AN68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BD68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE68">
         <v>2</v>
@@ -7745,34 +7745,34 @@
         </is>
       </c>
       <c r="AF69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN69">
         <v>5</v>
       </c>
       <c r="AO69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP69">
         <v>5</v>
@@ -7784,13 +7784,13 @@
         <v>5</v>
       </c>
       <c r="AS69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT69">
         <v>5</v>
       </c>
       <c r="AU69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV69">
         <v>5</v>
@@ -7799,19 +7799,19 @@
         <v>5</v>
       </c>
       <c r="AX69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC69">
         <v>4</v>
@@ -7851,58 +7851,58 @@
         <v>5</v>
       </c>
       <c r="AG70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH70">
         <v>5</v>
       </c>
       <c r="AI70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ70">
         <v>5</v>
       </c>
       <c r="AK70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL70">
         <v>4</v>
       </c>
       <c r="AM70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN70">
         <v>4</v>
       </c>
       <c r="AO70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU70">
         <v>5</v>
       </c>
       <c r="AV70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW70">
         <v>5</v>
       </c>
       <c r="AX70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY70">
         <v>5</v>
@@ -7911,7 +7911,7 @@
         <v>5</v>
       </c>
       <c r="BA70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB70">
         <v>5</v>
@@ -7920,7 +7920,7 @@
         <v>5</v>
       </c>
       <c r="BD70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE70">
         <v>5</v>
@@ -7951,25 +7951,25 @@
         </is>
       </c>
       <c r="AF71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG71">
         <v>2</v>
       </c>
       <c r="AH71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM71">
         <v>1</v>
@@ -7981,31 +7981,31 @@
         <v>4</v>
       </c>
       <c r="AP71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS71">
         <v>5</v>
       </c>
       <c r="AT71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU71">
         <v>3</v>
       </c>
       <c r="AV71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY71">
         <v>1</v>
@@ -8014,19 +8014,19 @@
         <v>4</v>
       </c>
       <c r="BA71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE71">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -8054,43 +8054,43 @@
         </is>
       </c>
       <c r="AF72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG72">
         <v>3</v>
       </c>
       <c r="AH72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK72">
         <v>5</v>
       </c>
       <c r="AL72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN72">
         <v>2</v>
       </c>
       <c r="AO72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP72">
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS72">
         <v>1</v>
@@ -8099,37 +8099,37 @@
         <v>2</v>
       </c>
       <c r="AU72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV72">
         <v>2</v>
       </c>
       <c r="AW72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX72">
         <v>2</v>
       </c>
       <c r="AY72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB72">
         <v>3</v>
       </c>
       <c r="BC72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BD72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BE72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -8157,19 +8157,19 @@
         </is>
       </c>
       <c r="AF73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK73">
         <v>3</v>
@@ -8181,22 +8181,22 @@
         <v>2</v>
       </c>
       <c r="AN73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT73">
         <v>3</v>
@@ -8205,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="AV73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW73">
         <v>2</v>
@@ -8217,16 +8217,16 @@
         <v>2</v>
       </c>
       <c r="AZ73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BD73">
         <v>1</v>
@@ -8263,19 +8263,19 @@
         <v>5</v>
       </c>
       <c r="AG74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL74">
         <v>5</v>
@@ -8284,37 +8284,37 @@
         <v>5</v>
       </c>
       <c r="AN74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT74">
         <v>3</v>
       </c>
       <c r="AU74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV74">
         <v>3</v>
       </c>
       <c r="AW74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY74">
         <v>5</v>
@@ -8326,16 +8326,16 @@
         <v>4</v>
       </c>
       <c r="BB74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE74">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -8363,79 +8363,79 @@
         </is>
       </c>
       <c r="AF75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG75">
         <v>5</v>
       </c>
       <c r="AH75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AQ75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS75">
         <v>1</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV75">
         <v>3</v>
       </c>
       <c r="AW75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC75">
         <v>4</v>
       </c>
       <c r="BD75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE75">
         <v>3</v>
@@ -8472,16 +8472,16 @@
         <v>3</v>
       </c>
       <c r="AH76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI76">
         <v>1</v>
       </c>
       <c r="AJ76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL76">
         <v>3</v>
@@ -8493,7 +8493,7 @@
         <v>2</v>
       </c>
       <c r="AO76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP76">
         <v>1</v>
@@ -8505,31 +8505,31 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW76">
         <v>2</v>
       </c>
       <c r="AX76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB76">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="BE76">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -8575,61 +8575,61 @@
         <v>5</v>
       </c>
       <c r="AH77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL77">
         <v>5</v>
       </c>
       <c r="AM77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW77">
         <v>4</v>
       </c>
       <c r="AX77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA77">
         <v>3</v>
@@ -8638,13 +8638,13 @@
         <v>2</v>
       </c>
       <c r="BC77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BE77">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -8675,13 +8675,13 @@
         <v>2</v>
       </c>
       <c r="AG78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH78">
         <v>1</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ78">
         <v>1</v>
@@ -8690,16 +8690,16 @@
         <v>1</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN78">
         <v>4</v>
       </c>
       <c r="AO78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP78">
         <v>3</v>
@@ -8708,19 +8708,19 @@
         <v>5</v>
       </c>
       <c r="AR78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS78">
         <v>4</v>
       </c>
       <c r="AT78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU78">
         <v>5</v>
       </c>
       <c r="AV78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW78">
         <v>2</v>
@@ -8729,25 +8729,25 @@
         <v>1</v>
       </c>
       <c r="AY78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA78">
         <v>3</v>
       </c>
       <c r="BB78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE78">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -8775,82 +8775,82 @@
         </is>
       </c>
       <c r="AF79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG79">
         <v>2</v>
       </c>
       <c r="AH79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ79">
         <v>2</v>
       </c>
       <c r="AR79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW79">
         <v>3</v>
       </c>
       <c r="AX79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA79">
         <v>3</v>
       </c>
       <c r="BB79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC79">
         <v>4</v>
       </c>
       <c r="BD79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE79">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -8884,43 +8884,43 @@
         <v>2</v>
       </c>
       <c r="AH80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL80">
         <v>2</v>
       </c>
       <c r="AM80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP80">
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU80">
         <v>1</v>
@@ -8932,13 +8932,13 @@
         <v>1</v>
       </c>
       <c r="AX80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA80">
         <v>1</v>
@@ -8953,7 +8953,7 @@
         <v>1</v>
       </c>
       <c r="BE80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="AK81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL81">
         <v>5</v>
@@ -9008,7 +9008,7 @@
         <v>4</v>
       </c>
       <c r="AO81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP81">
         <v>5</v>
@@ -9017,46 +9017,46 @@
         <v>5</v>
       </c>
       <c r="AR81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV81">
         <v>4</v>
       </c>
       <c r="AW81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD81">
         <v>5</v>
       </c>
       <c r="BE81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -9087,76 +9087,76 @@
         <v>3</v>
       </c>
       <c r="AG82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL82">
         <v>2</v>
       </c>
       <c r="AM82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN82">
         <v>2</v>
       </c>
       <c r="AO82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT82">
         <v>3</v>
       </c>
       <c r="AU82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW82">
         <v>3</v>
       </c>
       <c r="AX82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BD82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE82">
         <v>2</v>
@@ -9187,16 +9187,16 @@
         </is>
       </c>
       <c r="AF83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG83">
         <v>1</v>
       </c>
       <c r="AH83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ83">
         <v>1</v>
@@ -9205,64 +9205,64 @@
         <v>1</v>
       </c>
       <c r="AL83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM83">
         <v>1</v>
       </c>
       <c r="AN83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO83">
         <v>2</v>
       </c>
       <c r="AP83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BA83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -9290,10 +9290,10 @@
         </is>
       </c>
       <c r="AF84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH84">
         <v>5</v>
@@ -9302,37 +9302,37 @@
         <v>5</v>
       </c>
       <c r="AJ84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL84">
         <v>5</v>
       </c>
       <c r="AM84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>5</v>
       </c>
       <c r="AR84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS84">
         <v>5</v>
       </c>
       <c r="AT84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU84">
         <v>5</v>
@@ -9353,13 +9353,13 @@
         <v>5</v>
       </c>
       <c r="BA84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD84">
         <v>5</v>
@@ -9396,10 +9396,10 @@
         <v>2</v>
       </c>
       <c r="AG85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI85">
         <v>1</v>
@@ -9408,16 +9408,16 @@
         <v>2</v>
       </c>
       <c r="AK85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM85">
         <v>2</v>
       </c>
       <c r="AN85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO85">
         <v>3</v>
@@ -9426,49 +9426,49 @@
         <v>3</v>
       </c>
       <c r="AQ85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV85">
         <v>3</v>
       </c>
       <c r="AW85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA85">
         <v>3</v>
       </c>
       <c r="BB85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -9496,49 +9496,49 @@
         </is>
       </c>
       <c r="AF86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ86">
         <v>3</v>
       </c>
       <c r="AK86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU86">
         <v>4</v>
@@ -9547,31 +9547,31 @@
         <v>4</v>
       </c>
       <c r="AW86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ86">
         <v>4</v>
       </c>
       <c r="BA86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB86">
         <v>4</v>
       </c>
       <c r="BC86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BE86">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -9599,10 +9599,10 @@
         </is>
       </c>
       <c r="AF87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH87">
         <v>5</v>
@@ -9611,16 +9611,16 @@
         <v>4</v>
       </c>
       <c r="AJ87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK87">
         <v>4</v>
       </c>
       <c r="AL87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN87">
         <v>4</v>
@@ -9629,52 +9629,52 @@
         <v>5</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR87">
         <v>3</v>
       </c>
       <c r="AS87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AU87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD87">
         <v>4</v>
       </c>
       <c r="BE87">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -9702,40 +9702,40 @@
         </is>
       </c>
       <c r="AF88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH88">
         <v>2</v>
       </c>
       <c r="AI88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK88">
         <v>2</v>
       </c>
       <c r="AL88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP88">
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1</v>
@@ -9750,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="AV88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW88">
         <v>2</v>
@@ -9759,25 +9759,25 @@
         <v>1</v>
       </c>
       <c r="AY88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC88">
         <v>1</v>
       </c>
       <c r="BD88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BE88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -9805,22 +9805,22 @@
         </is>
       </c>
       <c r="AF89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ89">
         <v>3</v>
       </c>
       <c r="AK89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL89">
         <v>2</v>
@@ -9829,28 +9829,28 @@
         <v>1</v>
       </c>
       <c r="AN89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ89">
         <v>3</v>
       </c>
       <c r="AR89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT89">
         <v>2</v>
       </c>
       <c r="AU89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV89">
         <v>2</v>
@@ -9859,28 +9859,28 @@
         <v>3</v>
       </c>
       <c r="AX89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE89">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -9911,16 +9911,16 @@
         <v>4</v>
       </c>
       <c r="AG90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH90">
         <v>5</v>
       </c>
       <c r="AI90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK90">
         <v>4</v>
@@ -9929,7 +9929,7 @@
         <v>3</v>
       </c>
       <c r="AM90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN90">
         <v>1</v>
@@ -9944,13 +9944,13 @@
         <v>1</v>
       </c>
       <c r="AR90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS90">
         <v>1</v>
       </c>
       <c r="AT90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>3</v>
@@ -9959,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="AW90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX90">
         <v>4</v>
@@ -9971,19 +9971,19 @@
         <v>4</v>
       </c>
       <c r="BA90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE90">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -10017,22 +10017,22 @@
         <v>5</v>
       </c>
       <c r="AH91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN91">
         <v>5</v>
@@ -10044,22 +10044,22 @@
         <v>5</v>
       </c>
       <c r="AQ91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR91">
         <v>5</v>
       </c>
       <c r="AS91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW91">
         <v>4</v>
@@ -10068,13 +10068,13 @@
         <v>5</v>
       </c>
       <c r="AY91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB91">
         <v>3</v>
@@ -10083,7 +10083,7 @@
         <v>4</v>
       </c>
       <c r="BD91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BE91">
         <v>4</v>
